--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3736.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3736.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.20183832487209</v>
+        <v>1.286989212036133</v>
       </c>
       <c r="B1">
-        <v>2.227366059777669</v>
+        <v>3.542252540588379</v>
       </c>
       <c r="C1">
-        <v>5.171910571684577</v>
+        <v>1.75562310218811</v>
       </c>
       <c r="D1">
-        <v>3.256114690175717</v>
+        <v>1.196251153945923</v>
       </c>
       <c r="E1">
-        <v>1.200441646833185</v>
+        <v>1.256491541862488</v>
       </c>
     </row>
   </sheetData>
